--- a/resources/sample/battle.xlsx
+++ b/resources/sample/battle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="CardSprite" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="95">
   <si>
     <t>样本ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,6 +346,54 @@
   </si>
   <si>
     <t>三人对弈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxRoundNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次出手倒计时时间(秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一局上限回合数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>countdownSecond</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合的行动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roundSp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动消耗的行动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needSp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,6 +445,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -416,7 +532,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -695,10 +811,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -709,9 +825,10 @@
     <col min="5" max="6" width="6.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -736,8 +853,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -762,8 +882,11 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -788,8 +911,11 @@
       <c r="H3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -814,8 +940,11 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -840,8 +969,11 @@
       <c r="H6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -866,8 +998,11 @@
       <c r="H7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -892,8 +1027,11 @@
       <c r="H8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -918,8 +1056,11 @@
       <c r="H9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -944,8 +1085,11 @@
       <c r="H10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -970,8 +1114,11 @@
       <c r="H11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -996,8 +1143,11 @@
       <c r="H12" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1022,8 +1172,11 @@
       <c r="H13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1048,8 +1201,11 @@
       <c r="H14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1074,8 +1230,11 @@
       <c r="H15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1100,8 +1259,11 @@
       <c r="H16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1126,8 +1288,11 @@
       <c r="H17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1152,8 +1317,11 @@
       <c r="H18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1178,8 +1346,11 @@
       <c r="H19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1204,8 +1375,11 @@
       <c r="H20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1230,8 +1404,11 @@
       <c r="H21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1256,8 +1433,11 @@
       <c r="H22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1282,8 +1462,11 @@
       <c r="H23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1308,8 +1491,11 @@
       <c r="H24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>21</v>
       </c>
@@ -1334,8 +1520,11 @@
       <c r="H25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>22</v>
       </c>
@@ -1360,8 +1549,11 @@
       <c r="H26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1386,8 +1578,11 @@
       <c r="H27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>24</v>
       </c>
@@ -1412,8 +1607,11 @@
       <c r="H28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I28">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>25</v>
       </c>
@@ -1438,8 +1636,11 @@
       <c r="H29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I29">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>26</v>
       </c>
@@ -1464,8 +1665,11 @@
       <c r="H30" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1490,8 +1694,11 @@
       <c r="H31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I31">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1516,8 +1723,11 @@
       <c r="H32" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>29</v>
       </c>
@@ -1542,8 +1752,11 @@
       <c r="H33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I33">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>30</v>
       </c>
@@ -1568,8 +1781,11 @@
       <c r="H34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>31</v>
       </c>
@@ -1594,8 +1810,11 @@
       <c r="H35" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I35">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>32</v>
       </c>
@@ -1619,6 +1838,9 @@
       </c>
       <c r="H36" t="s">
         <v>47</v>
+      </c>
+      <c r="I36">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1630,19 +1852,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1664,8 +1890,17 @@
       <c r="G1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1687,8 +1922,17 @@
       <c r="G2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1710,8 +1954,17 @@
       <c r="G3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1733,8 +1986,17 @@
       <c r="G5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1755,6 +2017,15 @@
       </c>
       <c r="G6">
         <v>17</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
